--- a/Documentation/Journal_de_travail.xlsx
+++ b/Documentation/Journal_de_travail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\TPI\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/TPI/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FBC5B90-C450-1B44-82BE-FBADA61053EA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16485"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Commencement du TPI. J'ai reçu mon cahier des charges que j'ai signé. J'ai eu un entretien avec l'expert 1.</t>
   </si>
@@ -41,13 +42,13 @@
     <t>Création des maquettes pour le site.</t>
   </si>
   <si>
-    <t>3 heures</t>
+    <t xml:space="preserve">Création des uses cases et scénarios </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,19 +360,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="96.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>43228</v>
       </c>
@@ -382,7 +383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43228</v>
       </c>
@@ -393,7 +394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43228</v>
       </c>
@@ -401,7 +402,18 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Journal_de_travail.xlsx
+++ b/Documentation/Journal_de_travail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/TPI/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\TPI\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FBC5B90-C450-1B44-82BE-FBADA61053EA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16485"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Commencement du TPI. J'ai reçu mon cahier des charges que j'ai signé. J'ai eu un entretien avec l'expert 1.</t>
   </si>
@@ -43,12 +42,18 @@
   </si>
   <si>
     <t xml:space="preserve">Création des uses cases et scénarios </t>
+  </si>
+  <si>
+    <t>Commencer à faire le MCD et le MLD. Je les ai montrés à M. Chavey et on en a parlé puis amené quelques modifications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 heures </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,19 +365,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="96.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>43228</v>
       </c>
@@ -383,7 +388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43228</v>
       </c>
@@ -394,7 +399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43228</v>
       </c>
@@ -405,7 +410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43228</v>
       </c>
@@ -414,6 +419,17 @@
       </c>
       <c r="C4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43229</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Journal_de_travail.xlsx
+++ b/Documentation/Journal_de_travail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\TPI\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/TPI/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{106A0AC7-0311-F044-8956-95538AF6AFAD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16485"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -47,13 +48,13 @@
     <t>Commencer à faire le MCD et le MLD. Je les ai montrés à M. Chavey et on en a parlé puis amené quelques modifications.</t>
   </si>
   <si>
-    <t xml:space="preserve">4 heures </t>
+    <t xml:space="preserve">5 heures </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,19 +366,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="109.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>43228</v>
       </c>
@@ -388,7 +389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43228</v>
       </c>
@@ -399,7 +400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43228</v>
       </c>
@@ -410,7 +411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43228</v>
       </c>
@@ -421,7 +422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43229</v>
       </c>

--- a/Documentation/Journal_de_travail.xlsx
+++ b/Documentation/Journal_de_travail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/TPI/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\TPI\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{106A0AC7-0311-F044-8956-95538AF6AFAD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16485"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Commencement du TPI. J'ai reçu mon cahier des charges que j'ai signé. J'ai eu un entretien avec l'expert 1.</t>
   </si>
@@ -48,13 +47,22 @@
     <t>Commencer à faire le MCD et le MLD. Je les ai montrés à M. Chavey et on en a parlé puis amené quelques modifications.</t>
   </si>
   <si>
-    <t xml:space="preserve">5 heures </t>
+    <t>Finalisation du MLD/MCD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5 heures </t>
+  </si>
+  <si>
+    <t>0.5 heure</t>
+  </si>
+  <si>
+    <t>Commencement de la documentation du projet. Rédiger l'introduction, les objectifs et la planification initiale.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,19 +374,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="109.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>43228</v>
       </c>
@@ -389,7 +397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43228</v>
       </c>
@@ -400,7 +408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43228</v>
       </c>
@@ -411,7 +419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43228</v>
       </c>
@@ -422,7 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43229</v>
       </c>
@@ -430,11 +438,33 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="152" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Journal_de_travail.xlsx
+++ b/Documentation/Journal_de_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Commencement du TPI. J'ai reçu mon cahier des charges que j'ai signé. J'ai eu un entretien avec l'expert 1.</t>
   </si>
@@ -57,6 +57,13 @@
   </si>
   <si>
     <t>Commencement de la documentation du projet. Rédiger l'introduction, les objectifs et la planification initiale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commencement de l'application mobile. J'ai ajouté les champs qui apparaitront sur les deux pages. J'ai aussi ajouté la partie 
+requetes pour aller chercher la valeur des champs </t>
+  </si>
+  <si>
+    <t>6 heures</t>
   </si>
 </sst>
 </file>
@@ -92,9 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +473,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="landscape" r:id="rId1"/>

--- a/Documentation/Journal_de_travail.xlsx
+++ b/Documentation/Journal_de_travail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\TPI\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/TPI/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8FB2721-F818-DF44-9815-6E8A92259BAD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16485"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,19 +385,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="109.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>43228</v>
       </c>
@@ -407,7 +408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43228</v>
       </c>
@@ -418,7 +419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43228</v>
       </c>
@@ -429,7 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43228</v>
       </c>
@@ -440,7 +441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43229</v>
       </c>
@@ -451,7 +452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43229</v>
       </c>
@@ -462,7 +463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43235</v>
       </c>
@@ -473,7 +474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43235</v>
       </c>

--- a/Documentation/Journal_de_travail.xlsx
+++ b/Documentation/Journal_de_travail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/TPI/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\TPI\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8FB2721-F818-DF44-9815-6E8A92259BAD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16485"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Commencement du TPI. J'ai reçu mon cahier des charges que j'ai signé. J'ai eu un entretien avec l'expert 1.</t>
   </si>
@@ -60,17 +59,23 @@
     <t>Commencement de la documentation du projet. Rédiger l'introduction, les objectifs et la planification initiale.</t>
   </si>
   <si>
-    <t xml:space="preserve">Commencement de l'application mobile. J'ai ajouté les champs qui apparaitront sur les deux pages. J'ai aussi ajouté la partie 
-requetes pour aller chercher la valeur des champs </t>
-  </si>
-  <si>
     <t>6 heures</t>
+  </si>
+  <si>
+    <t>Commencement de l'application mobile. J'ai ajouté les champs qui apparaitront sur les deux pages. J'ai aussi ajouté la partie qui me permet de scanner un QR Code et que l'application me renvoie des informations que j'ai choisies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai commencé à essayer de faire des requêtes depuis l'application mobile vers ma base de données mais je n'y arrive pas encore.
+ Il y a encore un problème avec les variables. M. Chavey est venu m'aider mais en vain </t>
+  </si>
+  <si>
+    <t>5 heures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,19 +390,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="109.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>43228</v>
       </c>
@@ -408,7 +413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43228</v>
       </c>
@@ -419,7 +424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43228</v>
       </c>
@@ -430,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43228</v>
       </c>
@@ -441,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43229</v>
       </c>
@@ -452,7 +457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43229</v>
       </c>
@@ -463,7 +468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43235</v>
       </c>
@@ -474,15 +479,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43235</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Journal_de_travail.xlsx
+++ b/Documentation/Journal_de_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Commencement du TPI. J'ai reçu mon cahier des charges que j'ai signé. J'ai eu un entretien avec l'expert 1.</t>
   </si>
@@ -65,11 +65,25 @@
     <t>Commencement de l'application mobile. J'ai ajouté les champs qui apparaitront sur les deux pages. J'ai aussi ajouté la partie qui me permet de scanner un QR Code et que l'application me renvoie des informations que j'ai choisies</t>
   </si>
   <si>
-    <t xml:space="preserve">J'ai commencé à essayer de faire des requêtes depuis l'application mobile vers ma base de données mais je n'y arrive pas encore.
- Il y a encore un problème avec les variables. M. Chavey est venu m'aider mais en vain </t>
-  </si>
-  <si>
-    <t>5 heures</t>
+    <t>4 heures</t>
+  </si>
+  <si>
+    <t>J'ai commencé à envoyer des requête à ma base de données depuis mon application mobile, en me référant à une vidéo trouvée sur youtube mais j'ai eu des soucis. Du coup je n'arrivais pas à envoyer ma requête.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1v-BbgFM5ps</t>
+  </si>
+  <si>
+    <t>Suite à mon problème, M. Chavey est venu me donner un coup de main afin de débuguer pour que je puisse continuer à travailler mais nous n'avons pas trouvé la solution.</t>
+  </si>
+  <si>
+    <t>Mon problème qui est survenu hier s'est réglé grâce à l'aide que m'a apporté M. Carrel pour effectuer ma requête.</t>
+  </si>
+  <si>
+    <t>3 heures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une des deux pages de mon application mobile est terminée, j'ai commencé à faire la deuxième page. Je peux déjà ajouté un mouvement quand j'ajoute des bouteilles dans ma cave. Elle reprend les ID de la bouteille et de l'utilisateur qui l'a ajouté </t>
   </si>
 </sst>
 </file>
@@ -391,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +416,7 @@
     <col min="2" max="2" width="112.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>43228</v>
       </c>
@@ -413,7 +427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43228</v>
       </c>
@@ -424,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43228</v>
       </c>
@@ -435,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43228</v>
       </c>
@@ -446,7 +460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43229</v>
       </c>
@@ -457,7 +471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43229</v>
       </c>
@@ -468,7 +482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43235</v>
       </c>
@@ -479,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43235</v>
       </c>
@@ -490,15 +504,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43236</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Journal_de_travail.xlsx
+++ b/Documentation/Journal_de_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Commencement du TPI. J'ai reçu mon cahier des charges que j'ai signé. J'ai eu un entretien avec l'expert 1.</t>
   </si>
@@ -71,9 +71,6 @@
     <t>J'ai commencé à envoyer des requête à ma base de données depuis mon application mobile, en me référant à une vidéo trouvée sur youtube mais j'ai eu des soucis. Du coup je n'arrivais pas à envoyer ma requête.</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=1v-BbgFM5ps</t>
-  </si>
-  <si>
     <t>Suite à mon problème, M. Chavey est venu me donner un coup de main afin de débuguer pour que je puisse continuer à travailler mais nous n'avons pas trouvé la solution.</t>
   </si>
   <si>
@@ -83,7 +80,10 @@
     <t>3 heures</t>
   </si>
   <si>
-    <t xml:space="preserve">Une des deux pages de mon application mobile est terminée, j'ai commencé à faire la deuxième page. Je peux déjà ajouté un mouvement quand j'ajoute des bouteilles dans ma cave. Elle reprend les ID de la bouteille et de l'utilisateur qui l'a ajouté </t>
+    <t>Une des deux pages de mon application mobile est terminée, j'ai commencé à faire la deuxième page. Je peux déjà ajouter un mouvement quand j'ajoute des bouteilles dans ma cave. Elle reprend aussi le fait qu'une personne enlève une bouteille et cela crée un mouvement dans la BD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai fait de la documentation, j'ai ajouté mes maquettes et aimélioré des uses cases et scénarios </t>
   </si>
 </sst>
 </file>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,7 @@
     <col min="2" max="2" width="112.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>43228</v>
       </c>
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43228</v>
       </c>
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43228</v>
       </c>
@@ -449,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43228</v>
       </c>
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43229</v>
       </c>
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43229</v>
       </c>
@@ -482,7 +482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43235</v>
       </c>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43235</v>
       </c>
@@ -504,7 +504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43236</v>
       </c>
@@ -515,40 +515,48 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43236</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43237</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43237</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
+      <c r="C13" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
